--- a/biology/Virologie/Fièvre_pappataci/Fièvre_pappataci.xlsx
+++ b/biology/Virologie/Fièvre_pappataci/Fièvre_pappataci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_pappataci</t>
+          <t>Fièvre_pappataci</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fièvre pappataci, ou fièvre à phlébotomes est une arbovirose, due à un virus du type de celui responsable de la dengue, ayant l'homme pour réservoir de virus et Phlebotomus papatasi pour hôte intermédiaire et vecteur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_pappataci</t>
+          <t>Fièvre_pappataci</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Distribution géographique et importance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est rencontrée en pratique dans l'aire de peuplement de Phlebotomus papatasi : sud de l'Europe, Moyen-Orient et bassin méditerranéen.
 Son importance est réduite du fait de sa bénignité et de sa courte durée (« fièvre des trois jours »). Elle ne confère d'ailleurs qu'une immunité éphémère.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_pappataci</t>
+          <t>Fièvre_pappataci</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après l'incubation muette de 5 jours et l'invasion très brutale, le tableau est celui d'une dengue réduite à son premier épisode fébrile de 3 jours :
 fièvre à 39-40 °C, irrégulière et avec pouls dissocié ;
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_pappataci</t>
+          <t>Fièvre_pappataci</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En pays d'endémie, le diagnostic est classique. Dans les zones où la maladie apparaît sporadiquement, elle est souvent confondue avec un épisode grippal.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_pappataci</t>
+          <t>Fièvre_pappataci</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'y a pas de traitement spécifique. La vitamine C hâterait la convalescence.
  Portail de la médecine   Portail de la virologie   Portail de l’entomologie                   </t>
